--- a/stock_predictor_ai/data/company_sentiment_ready/WBD_sentiment.xlsx
+++ b/stock_predictor_ai/data/company_sentiment_ready/WBD_sentiment.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5019"/>
+  <dimension ref="A1:B5079"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40593,6 +40593,486 @@
         <v>0</v>
       </c>
     </row>
+    <row r="5020">
+      <c r="A5020" s="2" t="n">
+        <v>45826</v>
+      </c>
+      <c r="B5020" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5021">
+      <c r="A5021" s="2" t="n">
+        <v>45828</v>
+      </c>
+      <c r="B5021" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5022">
+      <c r="A5022" s="2" t="n">
+        <v>45831</v>
+      </c>
+      <c r="B5022" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5023">
+      <c r="A5023" s="2" t="n">
+        <v>45832</v>
+      </c>
+      <c r="B5023" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5024">
+      <c r="A5024" s="2" t="n">
+        <v>45833</v>
+      </c>
+      <c r="B5024" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5025">
+      <c r="A5025" s="2" t="n">
+        <v>45834</v>
+      </c>
+      <c r="B5025" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5026">
+      <c r="A5026" s="2" t="n">
+        <v>45835</v>
+      </c>
+      <c r="B5026" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5027">
+      <c r="A5027" s="2" t="n">
+        <v>45838</v>
+      </c>
+      <c r="B5027" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5028">
+      <c r="A5028" s="2" t="n">
+        <v>45839</v>
+      </c>
+      <c r="B5028" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5029">
+      <c r="A5029" s="2" t="n">
+        <v>45840</v>
+      </c>
+      <c r="B5029" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5030">
+      <c r="A5030" s="2" t="n">
+        <v>45841</v>
+      </c>
+      <c r="B5030" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5031">
+      <c r="A5031" s="2" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B5031" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5032">
+      <c r="A5032" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B5032" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5033">
+      <c r="A5033" s="2" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B5033" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5034">
+      <c r="A5034" s="2" t="n">
+        <v>45848</v>
+      </c>
+      <c r="B5034" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5035">
+      <c r="A5035" s="2" t="n">
+        <v>45849</v>
+      </c>
+      <c r="B5035" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5036">
+      <c r="A5036" s="2" t="n">
+        <v>45852</v>
+      </c>
+      <c r="B5036" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5037">
+      <c r="A5037" s="2" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B5037" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5038">
+      <c r="A5038" s="2" t="n">
+        <v>45854</v>
+      </c>
+      <c r="B5038" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5039">
+      <c r="A5039" s="2" t="n">
+        <v>45855</v>
+      </c>
+      <c r="B5039" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5040">
+      <c r="A5040" s="2" t="n">
+        <v>45856</v>
+      </c>
+      <c r="B5040" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5041">
+      <c r="A5041" s="2" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B5041" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5042">
+      <c r="A5042" s="2" t="n">
+        <v>45860</v>
+      </c>
+      <c r="B5042" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5043">
+      <c r="A5043" s="2" t="n">
+        <v>45861</v>
+      </c>
+      <c r="B5043" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5044">
+      <c r="A5044" s="2" t="n">
+        <v>45862</v>
+      </c>
+      <c r="B5044" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5045">
+      <c r="A5045" s="2" t="n">
+        <v>45863</v>
+      </c>
+      <c r="B5045" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5046">
+      <c r="A5046" s="2" t="n">
+        <v>45866</v>
+      </c>
+      <c r="B5046" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5047">
+      <c r="A5047" s="2" t="n">
+        <v>45867</v>
+      </c>
+      <c r="B5047" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5048">
+      <c r="A5048" s="2" t="n">
+        <v>45868</v>
+      </c>
+      <c r="B5048" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5049">
+      <c r="A5049" s="2" t="n">
+        <v>45869</v>
+      </c>
+      <c r="B5049" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5050">
+      <c r="A5050" s="2" t="n">
+        <v>45870</v>
+      </c>
+      <c r="B5050" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5051">
+      <c r="A5051" s="2" t="n">
+        <v>45873</v>
+      </c>
+      <c r="B5051" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5052">
+      <c r="A5052" s="2" t="n">
+        <v>45874</v>
+      </c>
+      <c r="B5052" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5053">
+      <c r="A5053" s="2" t="n">
+        <v>45875</v>
+      </c>
+      <c r="B5053" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5054">
+      <c r="A5054" s="2" t="n">
+        <v>45876</v>
+      </c>
+      <c r="B5054" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5055">
+      <c r="A5055" s="2" t="n">
+        <v>45877</v>
+      </c>
+      <c r="B5055" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5056">
+      <c r="A5056" s="2" t="n">
+        <v>45880</v>
+      </c>
+      <c r="B5056" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5057">
+      <c r="A5057" s="2" t="n">
+        <v>45881</v>
+      </c>
+      <c r="B5057" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5058">
+      <c r="A5058" s="2" t="n">
+        <v>45882</v>
+      </c>
+      <c r="B5058" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5059">
+      <c r="A5059" s="2" t="n">
+        <v>45883</v>
+      </c>
+      <c r="B5059" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5060">
+      <c r="A5060" s="2" t="n">
+        <v>45884</v>
+      </c>
+      <c r="B5060" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5061">
+      <c r="A5061" s="2" t="n">
+        <v>45887</v>
+      </c>
+      <c r="B5061" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5062">
+      <c r="A5062" s="2" t="n">
+        <v>45888</v>
+      </c>
+      <c r="B5062" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5063">
+      <c r="A5063" s="2" t="n">
+        <v>45889</v>
+      </c>
+      <c r="B5063" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5064">
+      <c r="A5064" s="2" t="n">
+        <v>45890</v>
+      </c>
+      <c r="B5064" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5065">
+      <c r="A5065" s="2" t="n">
+        <v>45891</v>
+      </c>
+      <c r="B5065" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5066">
+      <c r="A5066" s="2" t="n">
+        <v>45894</v>
+      </c>
+      <c r="B5066" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5067">
+      <c r="A5067" s="2" t="n">
+        <v>45895</v>
+      </c>
+      <c r="B5067" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5068">
+      <c r="A5068" s="2" t="n">
+        <v>45896</v>
+      </c>
+      <c r="B5068" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5069">
+      <c r="A5069" s="2" t="n">
+        <v>45897</v>
+      </c>
+      <c r="B5069" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5070">
+      <c r="A5070" s="2" t="n">
+        <v>45898</v>
+      </c>
+      <c r="B5070" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5071">
+      <c r="A5071" s="2" t="n">
+        <v>45902</v>
+      </c>
+      <c r="B5071" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5072">
+      <c r="A5072" s="2" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B5072" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5073">
+      <c r="A5073" s="2" t="n">
+        <v>45904</v>
+      </c>
+      <c r="B5073" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5074">
+      <c r="A5074" s="2" t="n">
+        <v>45905</v>
+      </c>
+      <c r="B5074" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5075">
+      <c r="A5075" s="2" t="n">
+        <v>45908</v>
+      </c>
+      <c r="B5075" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5076">
+      <c r="A5076" s="2" t="n">
+        <v>45909</v>
+      </c>
+      <c r="B5076" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5077">
+      <c r="A5077" s="2" t="n">
+        <v>45910</v>
+      </c>
+      <c r="B5077" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5078">
+      <c r="A5078" s="2" t="n">
+        <v>45911</v>
+      </c>
+      <c r="B5078" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5079">
+      <c r="A5079" s="2" t="n">
+        <v>45912</v>
+      </c>
+      <c r="B5079" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/company_sentiment_ready/WBD_sentiment.xlsx
+++ b/stock_predictor_ai/data/company_sentiment_ready/WBD_sentiment.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5079"/>
+  <dimension ref="A1:B5080"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41073,6 +41073,14 @@
         <v>0</v>
       </c>
     </row>
+    <row r="5080">
+      <c r="A5080" s="2" t="n">
+        <v>45915</v>
+      </c>
+      <c r="B5080" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
